--- a/Document/GameTable/Level/LevelStageTable.xlsx
+++ b/Document/GameTable/Level/LevelStageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05ED555-4E49-46CB-9FBC-2B6B8428F5EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD06590-4962-42BB-9D8B-F5AE250ABE24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>stage1</t>
   </si>
   <si>
-    <t>"Basic_level11"</t>
-  </si>
-  <si>
     <t>(8,8)</t>
   </si>
   <si>
@@ -83,6 +80,18 @@
   </si>
   <si>
     <t>"늪지대"</t>
+  </si>
+  <si>
+    <t>Basic_level11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic_level12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1034,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,25 +1111,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1129,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -1138,11 +1147,59 @@
         <v>0.2</v>
       </c>
       <c r="O2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/GameTable/Level/LevelStageTable.xlsx
+++ b/Document/GameTable/Level/LevelStageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD06590-4962-42BB-9D8B-F5AE250ABE24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D9A97-EFCD-4BA8-B760-C230008F2D64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>(8,8)</t>
-  </si>
-  <si>
-    <t>(1,2,3)</t>
-  </si>
-  <si>
-    <t>(5,14,15,16)</t>
   </si>
   <si>
     <t>"늪지대"</t>
@@ -91,6 +85,22 @@
   </si>
   <si>
     <t>stage2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5,14)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5,1,2)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1046,7 +1056,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -1123,13 +1133,13 @@
         <v>16</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1138,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -1152,13 +1162,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1170,13 +1180,13 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1185,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3">
         <v>100</v>

--- a/Document/GameTable/Level/LevelStageTable.xlsx
+++ b/Document/GameTable/Level/LevelStageTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D9A97-EFCD-4BA8-B760-C230008F2D64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6EF81-638E-4277-B467-8287BB64B197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -49,33 +49,12 @@
     <t>EnemyTeamBatchPositions</t>
   </si>
   <si>
-    <t>EvnFlag</t>
-  </si>
-  <si>
-    <t>EvnId</t>
-  </si>
-  <si>
-    <t>EvnName</t>
-  </si>
-  <si>
-    <t>EvnSize</t>
-  </si>
-  <si>
-    <t>AddMoveSpeedValue</t>
-  </si>
-  <si>
-    <t>AddAttackSpeedValue</t>
-  </si>
-  <si>
     <t>stage1</t>
   </si>
   <si>
     <t>(8,8)</t>
   </si>
   <si>
-    <t>"늪지대"</t>
-  </si>
-  <si>
     <t>Basic_level11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -102,6 +81,193 @@
   <si>
     <t>(5,1,2)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageTitleName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageDescription</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageThumnail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage3</t>
+  </si>
+  <si>
+    <t>stage4</t>
+  </si>
+  <si>
+    <t>stage5</t>
+  </si>
+  <si>
+    <t>stage6</t>
+  </si>
+  <si>
+    <t>stage7</t>
+  </si>
+  <si>
+    <t>stage8</t>
+  </si>
+  <si>
+    <t>stage9</t>
+  </si>
+  <si>
+    <t>Basic_level13</t>
+  </si>
+  <si>
+    <t>Basic_level14</t>
+  </si>
+  <si>
+    <t>Basic_level15</t>
+  </si>
+  <si>
+    <t>Basic_level16</t>
+  </si>
+  <si>
+    <t>Basic_level17</t>
+  </si>
+  <si>
+    <t>Basic_level18</t>
+  </si>
+  <si>
+    <t>Basic_level19</t>
+  </si>
+  <si>
+    <t>(8,9)</t>
+  </si>
+  <si>
+    <t>(8,10)</t>
+  </si>
+  <si>
+    <t>(8,11)</t>
+  </si>
+  <si>
+    <t>(8,12)</t>
+  </si>
+  <si>
+    <t>(8,13)</t>
+  </si>
+  <si>
+    <t>(8,14)</t>
+  </si>
+  <si>
+    <t>(8,15)</t>
+  </si>
+  <si>
+    <t>(5,1,3)</t>
+  </si>
+  <si>
+    <t>(5,1,4)</t>
+  </si>
+  <si>
+    <t>(5,1,5)</t>
+  </si>
+  <si>
+    <t>(5,1,6)</t>
+  </si>
+  <si>
+    <t>(5,1,7)</t>
+  </si>
+  <si>
+    <t>(5,1,8)</t>
+  </si>
+  <si>
+    <t>(5,1,9)</t>
+  </si>
+  <si>
+    <t>(2,3,4,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,5,1,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,4,5,1,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,4,5,6,1,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,4,5,6,7,1,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,4,5,6,6,6,1,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3,4,5,6,6,6,7,1,1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrance to the  Forest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The animal friends set out from the entrance of the small forest. Their first enemy is a hungry crow.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageThumnail_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journey Through the Meadow</t>
+  </si>
+  <si>
+    <t>Crossing the lush meadow, they must avoid the interference of wriggling earthworms. Keep the supplies safe!</t>
+  </si>
+  <si>
+    <t>Adventure Across the River</t>
+  </si>
+  <si>
+    <t>While crossing the bridge, beware of the fish swarm’s attacks. The waters are full of danger.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windy Hill</t>
+  </si>
+  <si>
+    <t>On the windy hill, be on guard against sudden strikes from hawks. Teamwork is crucial here.</t>
+  </si>
+  <si>
+    <t>Dark Forest Grove</t>
+  </si>
+  <si>
+    <t>In the darkened woods, the threat of wolves begins. Move quietly and carefully.</t>
+  </si>
+  <si>
+    <t>Tranquil Lake</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Around the serene lake, hidden crocodiles lurk. Protect the supplies and tread carefully.</t>
+  </si>
+  <si>
+    <t>Trial of the Rocky Path</t>
+  </si>
+  <si>
+    <t>On the uneven rocky path, fend off attacks from stag beetles. Stay calm and focused.</t>
+  </si>
+  <si>
+    <t>Sunlit Plains</t>
+  </si>
+  <si>
+    <t>The beautiful plains are home to hidden snakes. Don’t let your guard down!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge of the Waterfall</t>
+  </si>
+  <si>
+    <t>Around the slippery and dangerous waterfall, a bear may appear. Stay alert!</t>
   </si>
 </sst>
 </file>
@@ -694,9 +860,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1053,20 +1222,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
     <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,117 +1270,332 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>0.2</v>
-      </c>
-      <c r="O2">
-        <v>0.3</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>0.2</v>
-      </c>
-      <c r="O3">
-        <v>0.3</v>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Document/GameTable/Level/LevelStageTable.xlsx
+++ b/Document/GameTable/Level/LevelStageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6EF81-638E-4277-B467-8287BB64B197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AADFB8-9DE3-408C-8A7C-D46DB5304D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StageThumnail_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Journey Through the Meadow</t>
   </si>
   <si>
@@ -268,6 +264,34 @@
   </si>
   <si>
     <t>Around the slippery and dangerous waterfall, a bear may appear. Stay alert!</t>
+  </si>
+  <si>
+    <t>stageThumnail1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageThumnail2</t>
+  </si>
+  <si>
+    <t>stageThumnail3</t>
+  </si>
+  <si>
+    <t>stageThumnail4</t>
+  </si>
+  <si>
+    <t>stageThumnail5</t>
+  </si>
+  <si>
+    <t>stageThumnail6</t>
+  </si>
+  <si>
+    <t>stageThumnail7</t>
+  </si>
+  <si>
+    <t>stageThumnail8</t>
+  </si>
+  <si>
+    <t>stageThumnail9</t>
   </si>
 </sst>
 </file>
@@ -1224,19 +1248,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" customWidth="1"/>
     <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="26.125" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="66" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
@@ -1315,7 +1339,7 @@
         <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1347,10 +1371,13 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>60</v>
+      <c r="L3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1382,10 +1409,13 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
+      <c r="L4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1417,10 +1447,13 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" t="s">
-        <v>64</v>
+      <c r="L5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1452,10 +1485,13 @@
         <v>44</v>
       </c>
       <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" t="s">
-        <v>66</v>
+      <c r="L6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1487,10 +1523,13 @@
         <v>45</v>
       </c>
       <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" t="s">
-        <v>68</v>
+      <c r="L7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1522,10 +1561,13 @@
         <v>46</v>
       </c>
       <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
-        <v>70</v>
+      <c r="L8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1557,10 +1599,13 @@
         <v>47</v>
       </c>
       <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
-        <v>72</v>
+      <c r="L9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1592,10 +1637,13 @@
         <v>48</v>
       </c>
       <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" t="s">
-        <v>74</v>
+      <c r="L10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Document/GameTable/Level/LevelStageTable.xlsx
+++ b/Document/GameTable/Level/LevelStageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AADFB8-9DE3-408C-8A7C-D46DB5304D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD4164-5447-4959-9AC6-D11A3CC85E23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,18 +67,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1,2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(5,14)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(2,3,3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(5,1,2)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -179,34 +171,6 @@
     <t>(5,1,9)</t>
   </si>
   <si>
-    <t>(2,3,4,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,5,1,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4,5,1,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4,5,6,1,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4,5,6,7,1,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4,5,6,6,6,1,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4,5,6,6,6,7,1,1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Entrance to the  Forest</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -292,6 +256,42 @@
   </si>
   <si>
     <t>stageThumnail9</t>
+  </si>
+  <si>
+    <t>(1001,1002)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1003)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1004,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1005,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1005,1001,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1004,1005,1006,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1004,1005,1005,1006,1006,1006,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1004,1005,1005,1006,1006,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1002,1003,1004,1004,1005,1006,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -884,12 +884,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1248,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1262,7 @@
     <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.125" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="66" style="1" customWidth="1"/>
@@ -1288,20 +1291,20 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1326,20 +1329,20 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1364,291 +1367,294 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>50</v>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>1000</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
-        <v>52</v>
+      <c r="H7" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>53</v>
+      <c r="H8" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>54</v>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
-        <v>55</v>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
         <v>73</v>
-      </c>
-      <c r="L10" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Document/GameTable/Level/LevelStageTable.xlsx
+++ b/Document/GameTable/Level/LevelStageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD4164-5447-4959-9AC6-D11A3CC85E23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8CE382-5296-4DEC-A286-1ED689B738BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,14 +55,6 @@
     <t>(8,8)</t>
   </si>
   <si>
-    <t>Basic_level11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic_level12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>stage2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -108,27 +100,6 @@
     <t>stage9</t>
   </si>
   <si>
-    <t>Basic_level13</t>
-  </si>
-  <si>
-    <t>Basic_level14</t>
-  </si>
-  <si>
-    <t>Basic_level15</t>
-  </si>
-  <si>
-    <t>Basic_level16</t>
-  </si>
-  <si>
-    <t>Basic_level17</t>
-  </si>
-  <si>
-    <t>Basic_level18</t>
-  </si>
-  <si>
-    <t>Basic_level19</t>
-  </si>
-  <si>
     <t>(8,9)</t>
   </si>
   <si>
@@ -291,6 +262,42 @@
   </si>
   <si>
     <t>(1002,1003,1004,1004,1005,1006,1001,1001)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_19</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1259,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,13 +1305,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1315,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -1330,30 +1337,30 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1368,285 +1375,285 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>1000</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
